--- a/TABLEAUC.xlsx
+++ b/TABLEAUC.xlsx
@@ -398,19 +398,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>391519.654</v>
+        <v>548870.1040000001</v>
       </c>
       <c r="C2" t="n">
-        <v>406909.4050000001</v>
+        <v>575725.9960000002</v>
       </c>
       <c r="D2" t="n">
-        <v>406909.4050000001</v>
+        <v>575725.9960000002</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>7343.291524276356</v>
+        <v>10330.61174902697</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>588886.201</v>
+        <v>21216.5</v>
       </c>
       <c r="C3" t="n">
-        <v>631495.6460000002</v>
+        <v>21264.44</v>
       </c>
       <c r="D3" t="n">
-        <v>631495.6460000002</v>
+        <v>21264.44</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10411.77443248446</v>
+        <v>374.6228068718149</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>524333.0469999999</v>
+        <v>4501.1</v>
       </c>
       <c r="C4" t="n">
-        <v>543708.8949999998</v>
+        <v>4501.1</v>
       </c>
       <c r="D4" t="n">
-        <v>562510.9049999999</v>
+        <v>4501.1</v>
       </c>
       <c r="E4" t="n">
-        <v>-18802.01</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11064.81065270551</v>
+        <v>94.79499081634312</v>
       </c>
     </row>
     <row r="5">
@@ -458,16 +458,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>700172.6600000008</v>
+        <v>18817.6</v>
       </c>
       <c r="C5" t="n">
-        <v>717670.7819999999</v>
+        <v>18822.4</v>
       </c>
       <c r="D5" t="n">
-        <v>788667.8090000001</v>
+        <v>18822.4</v>
       </c>
       <c r="E5" t="n">
-        <v>-70997.02700000002</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -478,16 +478,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>115257.02</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>118144.125</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>121645.325</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-3501.200000000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2320168.582000001</v>
+        <v>593405.304</v>
       </c>
       <c r="C12" t="n">
-        <v>2417928.853</v>
+        <v>620313.9360000001</v>
       </c>
       <c r="D12" t="n">
-        <v>2511229.090000001</v>
+        <v>620313.9360000001</v>
       </c>
       <c r="E12" t="n">
-        <v>-93300.23700000001</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="F12" t="n">
-        <v>28819.87660946633</v>
+        <v>10800.02954671513</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUC.xlsx
+++ b/TABLEAUC.xlsx
@@ -398,19 +398,15 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>548870.1040000001</v>
+        <v>20007.079</v>
       </c>
       <c r="C2" t="n">
-        <v>575725.9960000002</v>
-      </c>
-      <c r="D2" t="n">
-        <v>575725.9960000002</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1.13686837721616e-12</v>
-      </c>
+        <v>22874.823</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>10330.61174902697</v>
+        <v>376.5651724786067</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +414,15 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>21216.5</v>
+        <v>560558.1580000001</v>
       </c>
       <c r="C3" t="n">
-        <v>21264.44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21264.44</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+        <v>602125.7860000002</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>374.6228068718149</v>
+        <v>9897.856411983801</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +430,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>4501.1</v>
+        <v>256258.363</v>
       </c>
       <c r="C4" t="n">
-        <v>4501.1</v>
+        <v>260339.547</v>
       </c>
       <c r="D4" t="n">
-        <v>4501.1</v>
+        <v>260339.547</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="F4" t="n">
-        <v>94.79499081634312</v>
+        <v>5396.905015928577</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +450,13 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>18817.6</v>
+        <v>46328.21600000001</v>
       </c>
       <c r="C5" t="n">
-        <v>18822.4</v>
+        <v>47250.628</v>
       </c>
       <c r="D5" t="n">
-        <v>18822.4</v>
+        <v>47250.628</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -600,19 +592,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593405.304</v>
+        <v>883151.8160000001</v>
       </c>
       <c r="C12" t="n">
-        <v>620313.9360000001</v>
+        <v>932590.7840000002</v>
       </c>
       <c r="D12" t="n">
-        <v>620313.9360000001</v>
+        <v>307590.175</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="F12" t="n">
-        <v>10800.02954671513</v>
+        <v>15671.32660039098</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUC.xlsx
+++ b/TABLEAUC.xlsx
@@ -398,15 +398,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>20007.079</v>
+        <v>3100</v>
       </c>
       <c r="C2" t="n">
-        <v>22874.823</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>3100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="n">
-        <v>376.5651724786067</v>
+        <v>58.34694983129125</v>
       </c>
     </row>
     <row r="3">
@@ -414,15 +418,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>560558.1580000001</v>
+        <v>186208.195</v>
       </c>
       <c r="C3" t="n">
-        <v>602125.7860000002</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>187581</v>
+      </c>
+      <c r="D3" t="n">
+        <v>187581</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="n">
-        <v>9897.856411983801</v>
+        <v>3287.905011355985</v>
       </c>
     </row>
     <row r="4">
@@ -430,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>256258.363</v>
+        <v>478844.4499999998</v>
       </c>
       <c r="C4" t="n">
-        <v>260339.547</v>
+        <v>500527.4779999998</v>
       </c>
       <c r="D4" t="n">
-        <v>260339.547</v>
+        <v>501890.8879999999</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-1363.410000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>5396.905015928577</v>
+        <v>10084.65824802978</v>
       </c>
     </row>
     <row r="5">
@@ -450,16 +458,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>46328.21600000001</v>
+        <v>198681.061</v>
       </c>
       <c r="C5" t="n">
-        <v>47250.628</v>
+        <v>203071.245</v>
       </c>
       <c r="D5" t="n">
-        <v>47250.628</v>
+        <v>203071.245</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-3.637978807091713e-12</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -592,19 +600,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>883151.8160000001</v>
+        <v>866833.7059999998</v>
       </c>
       <c r="C12" t="n">
-        <v>932590.7840000002</v>
+        <v>894279.7229999998</v>
       </c>
       <c r="D12" t="n">
-        <v>307590.175</v>
+        <v>895643.1329999998</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-1363.410000000004</v>
       </c>
       <c r="F12" t="n">
-        <v>15671.32660039098</v>
+        <v>13430.91020921706</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUC.xlsx
+++ b/TABLEAUC.xlsx
@@ -398,19 +398,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.34694983129125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>186208.195</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>187581</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>187581</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3287.905011355985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>478844.4499999998</v>
+        <v>503558.0219999999</v>
       </c>
       <c r="C4" t="n">
-        <v>500527.4779999998</v>
+        <v>504927.542</v>
       </c>
       <c r="D4" t="n">
-        <v>501890.8879999999</v>
+        <v>504927.542</v>
       </c>
       <c r="E4" t="n">
-        <v>-1363.410000000001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10084.65824802978</v>
+        <v>10605.13609361842</v>
       </c>
     </row>
     <row r="5">
@@ -458,17 +458,13 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>198681.061</v>
+        <v>856831.9899999994</v>
       </c>
       <c r="C5" t="n">
-        <v>203071.245</v>
-      </c>
-      <c r="D5" t="n">
-        <v>203071.245</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-3.637978807091713e-12</v>
-      </c>
+        <v>881412.0879999994</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -478,13 +474,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3299.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3300.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3300.6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -600,19 +596,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>866833.7059999998</v>
+        <v>1363689.411999999</v>
       </c>
       <c r="C12" t="n">
-        <v>894279.7229999998</v>
+        <v>1389640.23</v>
       </c>
       <c r="D12" t="n">
-        <v>895643.1329999998</v>
+        <v>508228.1419999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-1363.410000000004</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>13430.91020921706</v>
+        <v>10605.13609361842</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUC.xlsx
+++ b/TABLEAUC.xlsx
@@ -438,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>503558.0219999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>504927.542</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>504927.542</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10605.13609361842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,17 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>856831.9899999994</v>
+        <v>173127.317</v>
       </c>
       <c r="C5" t="n">
-        <v>881412.0879999994</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>174653.567</v>
+      </c>
+      <c r="D5" t="n">
+        <v>174653.568</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.0009999999997489795</v>
+      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -474,16 +478,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>3299.4</v>
+        <v>132947.63</v>
       </c>
       <c r="C6" t="n">
-        <v>3300.6</v>
+        <v>138401.364</v>
       </c>
       <c r="D6" t="n">
-        <v>3300.6</v>
+        <v>138402.564</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1.200000000000728</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -596,19 +600,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1363689.411999999</v>
+        <v>306074.9469999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1389640.23</v>
+        <v>313054.931</v>
       </c>
       <c r="D12" t="n">
-        <v>508228.1419999999</v>
+        <v>313056.132</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-1.201000000000477</v>
       </c>
       <c r="F12" t="n">
-        <v>10605.13609361842</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
